--- a/docs/shrcore/shr-core-EpisodeOfCare-model.xlsx
+++ b/docs/shrcore/shr-core-EpisodeOfCare-model.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$18</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="93">
   <si>
     <t>Path</t>
   </si>
@@ -290,60 +290,14 @@
 Organization type is restricted to 0..1 in FHIR DSTU2, similarly restricted here. Other required attributes come from STU 3 mapping to us-core-organization.</t>
   </si>
   <si>
-    <t>shr-core-EpisodeOfCare-model.referralBasedOn[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ReferralRequest-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ProcedureRequest-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ServiceRequest-model]]}
-</t>
-  </si>
-  <si>
-    <t>Indicates any plans, proposals or orders that this request is intended to satisfy - in whole or in part.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>shr-core-EpisodeOfCare-model.referralBasedOnShr-core-ReferralRequest-model</t>
-  </si>
-  <si>
-    <t>ReferralRequest</t>
+    <t>shr-core-EpisodeOfCare-model.referralBasedOn</t>
   </si>
   <si>
     <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ReferralRequest-model]]}
 </t>
   </si>
   <si>
-    <t>Used to record and send details about a request for referral service or transfer of a patient to the care of another provider or provider organization.</t>
-  </si>
-  <si>
-    <t>shr-core-EpisodeOfCare-model.referralBasedOnShr-core-ProcedureRequest-model</t>
-  </si>
-  <si>
-    <t>ProcedureRequest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ProcedureRequest-model]]}
-</t>
-  </si>
-  <si>
-    <t>A request for a procedure to be performed. May be a proposal or an order.</t>
-  </si>
-  <si>
-    <t>shr-core-EpisodeOfCare-model.referralBasedOnShr-core-ServiceRequest-model</t>
-  </si>
-  <si>
-    <t>ServiceRequest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ServiceRequest-model]]}
-</t>
-  </si>
-  <si>
-    <t>A record of a request for service such as diagnostic investigations, treatments, or operations to be performed.</t>
+    <t>Indicates any plans, proposals or orders that this request is intended to satisfy - in whole or in part.</t>
   </si>
   <si>
     <t>shr-core-EpisodeOfCare-model.careManager</t>
@@ -506,7 +460,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ21"/>
+  <dimension ref="A1:AI18"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -515,8 +469,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="75.0703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="17.58984375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="51.51171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -2176,14 +2130,16 @@
         <v>36</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AB17" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="AC17" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="AE17" t="s" s="2">
         <v>86</v>
@@ -2203,17 +2159,15 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>92</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>41</v>
@@ -2228,13 +2182,13 @@
         <v>36</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2270,7 +2224,7 @@
         <v>36</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>36</v>
@@ -2285,318 +2239,23 @@
         <v>36</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" hidden="true">
-      <c r="A19" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G19" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P19" s="2"/>
-      <c r="Q19" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R19" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S19" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T19" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U19" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" hidden="true">
-      <c r="A20" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G20" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="K20" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P20" s="2"/>
-      <c r="Q20" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R20" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S20" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T20" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U20" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W20" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" hidden="true">
-      <c r="A21" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G21" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="J21" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P21" s="2"/>
-      <c r="Q21" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R21" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S21" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI21" t="s" s="2">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AI21">
+  <autoFilter ref="A1:AI18">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -2606,7 +2265,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI20">
+  <conditionalFormatting sqref="A2:AI17">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
